--- a/AI_Transcend_P&G_hackathon.xlsx
+++ b/AI_Transcend_P&G_hackathon.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahulgup\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ds_projects\git_projects\hackerearth_p-g\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76565F33-3165-4BFC-950D-3F62F0E4F05C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;G Flow Diagram" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,8 +445,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6444344" y="3374572"/>
-          <a:ext cx="1999978" cy="1030693"/>
+          <a:off x="6468836" y="3480707"/>
+          <a:ext cx="2008143" cy="1057908"/>
           <a:chOff x="726077" y="1201599"/>
           <a:chExt cx="1929221" cy="861628"/>
         </a:xfrm>
@@ -507,7 +502,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Fetch customer</a:t>
+              <a:t>find</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-IN" sz="1100" baseline="0">
@@ -519,7 +514,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t> attributes for the latest/current week to prepare final table</a:t>
+              <a:t> fast moving products </a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -612,8 +607,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9282249" y="3439886"/>
-          <a:ext cx="1918335" cy="838018"/>
+          <a:off x="9317627" y="3546021"/>
+          <a:ext cx="1929221" cy="859790"/>
           <a:chOff x="617220" y="1287780"/>
           <a:chExt cx="1918335" cy="829310"/>
         </a:xfrm>
@@ -774,8 +769,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3712028" y="3429000"/>
-          <a:ext cx="1942284" cy="871764"/>
+          <a:off x="3722913" y="3535135"/>
+          <a:ext cx="1950449" cy="898979"/>
           <a:chOff x="627911" y="1287779"/>
           <a:chExt cx="1907644" cy="829311"/>
         </a:xfrm>
@@ -831,7 +826,19 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Pull transactions for latest 52 weeks</a:t>
+              <a:t>transaction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> data</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -1044,8 +1051,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14984187" y="2035631"/>
-          <a:ext cx="1885678" cy="945785"/>
+          <a:off x="15046779" y="2098223"/>
+          <a:ext cx="1893843" cy="973000"/>
           <a:chOff x="649877" y="1181504"/>
           <a:chExt cx="1885678" cy="935586"/>
         </a:xfrm>
@@ -1194,8 +1201,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14936290" y="3439886"/>
-          <a:ext cx="1918335" cy="838018"/>
+          <a:off x="14998882" y="3546021"/>
+          <a:ext cx="1926500" cy="859790"/>
           <a:chOff x="617220" y="1287780"/>
           <a:chExt cx="1918335" cy="829310"/>
         </a:xfrm>
@@ -1727,8 +1734,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20493809" y="3439887"/>
-          <a:ext cx="1918336" cy="807537"/>
+          <a:off x="20580894" y="3546022"/>
+          <a:ext cx="1926501" cy="829309"/>
           <a:chOff x="617220" y="1318260"/>
           <a:chExt cx="1918336" cy="798830"/>
         </a:xfrm>
@@ -1871,8 +1878,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20410836" y="5223570"/>
-          <a:ext cx="1918335" cy="838020"/>
+          <a:off x="20497921" y="5384134"/>
+          <a:ext cx="1926500" cy="859791"/>
           <a:chOff x="617220" y="1287780"/>
           <a:chExt cx="1918335" cy="829310"/>
         </a:xfrm>
@@ -2397,8 +2404,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17425248" y="2061029"/>
-          <a:ext cx="1918336" cy="807538"/>
+          <a:off x="17498726" y="2123621"/>
+          <a:ext cx="1926500" cy="834753"/>
           <a:chOff x="617220" y="1318260"/>
           <a:chExt cx="1918336" cy="798830"/>
         </a:xfrm>
@@ -3074,8 +3081,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22949506" y="2018697"/>
-          <a:ext cx="1918335" cy="806328"/>
+          <a:off x="23047477" y="2081289"/>
+          <a:ext cx="1926499" cy="833543"/>
           <a:chOff x="617220" y="1318260"/>
           <a:chExt cx="1918335" cy="798830"/>
         </a:xfrm>
@@ -3215,6 +3222,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="100" idx="2"/>
           <a:endCxn id="156" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -3413,35 +3421,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-IN" sz="900"/>
-            <a:t>Customer</a:t>
+            <a:rPr lang="en-IN" sz="900" baseline="0"/>
+            <a:t>Finding fast moving products based on median sales </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="900" baseline="0"/>
-            <a:t> attributes for the latest week:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="900" baseline="0"/>
-            <a:t>- card table: gender</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="900" baseline="0"/>
-            <a:t>- store table: banner, geography</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="900" baseline="0"/>
-            <a:t>- segmentation table: price sensitivity, loyalty, lifestyle, preferred store</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3594,6 +3576,1110 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342629</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>91800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="58" name="Group 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803EE505-A100-4E3B-9C83-26D2BB20BE0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3437165" y="6898821"/>
+          <a:ext cx="2008143" cy="1057908"/>
+          <a:chOff x="726077" y="1201599"/>
+          <a:chExt cx="1929221" cy="861628"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="Rectangle 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF174AAB-59CA-46EE-A93C-B97B880BFB55}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="726077" y="1201599"/>
+            <a:ext cx="1821180" cy="723265"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>video</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="Flowchart: Connector 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88EB1E9A-26AF-4380-9A71-37C0FA79F96D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2360023" y="1790177"/>
+            <a:ext cx="295275" cy="273050"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CF348C"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="CF348C"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000"/>
+              <a:t>2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>310244</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>481423</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>108129</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="61" name="Group 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84FCAE2-00EF-4B3F-8062-338CB898572E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6025244" y="6915150"/>
+          <a:ext cx="2008143" cy="1057908"/>
+          <a:chOff x="726077" y="1201599"/>
+          <a:chExt cx="1929221" cy="861628"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="Rectangle 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B24CA5-B8E9-4063-BB4C-06CE5588FF8D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="726077" y="1201599"/>
+            <a:ext cx="1821180" cy="723265"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>deeplearning</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> model YOLO</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="Flowchart: Connector 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5DA95B-AEB9-47DA-B8D7-0F8EC69EF207}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2360023" y="1790177"/>
+            <a:ext cx="295275" cy="273050"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CF348C"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="CF348C"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000"/>
+              <a:t>2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371683</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>158682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Rectangle 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190499C0-5742-4166-9981-A47BAF8C1D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477251" y="6945085"/>
+          <a:ext cx="1895682" cy="888026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Void(no product on shelf)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> detection </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>166009</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>48984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>175010</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rectangle 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7315939-8834-4C45-81CD-854730BD5C88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10779580" y="6961413"/>
+          <a:ext cx="1861456" cy="888026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>availaible</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> prodcut calculation based on void</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>5445</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>174170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>64163</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>109696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rectangle 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D68C923-F406-40A7-8164-5A1FC6AC5B54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15517588" y="7658099"/>
+          <a:ext cx="1895682" cy="888026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>trigger takes 2 inputs one from </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388892</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>146229</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="69" name="Group 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0B435E-847A-4CD2-B1B8-6B829C40AEB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3483428" y="8667750"/>
+          <a:ext cx="2008143" cy="1057908"/>
+          <a:chOff x="726077" y="1201599"/>
+          <a:chExt cx="1929221" cy="861628"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="Rectangle 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDBC19B-8180-4DDB-BC79-BF518784017B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="726077" y="1201599"/>
+            <a:ext cx="1821180" cy="723265"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>transaction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="Flowchart: Connector 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15655A1F-2F57-47AC-AB9C-11C449D68365}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2360023" y="1790177"/>
+            <a:ext cx="295275" cy="273050"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CF348C"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="CF348C"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000"/>
+              <a:t>2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>356507</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>527686</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>162558</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="72" name="Group 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25EC4CFA-6B8C-4A29-AE03-D46E3672487C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6071507" y="8684079"/>
+          <a:ext cx="2008143" cy="1057908"/>
+          <a:chOff x="726077" y="1201599"/>
+          <a:chExt cx="1929221" cy="861628"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="73" name="Rectangle 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67421D64-EA13-4DE1-9C7C-74C5649454F2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="726077" y="1201599"/>
+            <a:ext cx="1821180" cy="723265"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>identify</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> fast moving  objects</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>remove outliesr and  use quartile and univariate analyisi</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="Flowchart: Connector 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F970924-14BA-4253-9F05-5ABA2C6D33B2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2360023" y="1790177"/>
+            <a:ext cx="295275" cy="273050"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="CF348C"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="CF348C"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000"/>
+              <a:t>2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>100692</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>182335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>159410</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>117861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Rectangle 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0947DFB2-4597-407A-84ED-DA271F2E1FC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18062121" y="7666264"/>
+          <a:ext cx="1895682" cy="888026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>msg to store managements </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>212272</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>103413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>270989</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38939</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rectangle 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F666C15-F2CB-4B87-A1F4-AED894666A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10825843" y="8730342"/>
+          <a:ext cx="1895682" cy="888026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>run</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> rate/sell rate matrix calculation for 12*7 (hour, day combination)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>385289</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>30777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Rectangle 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576D5614-0603-4327-A3F5-379E57D80B28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8490857" y="8722180"/>
+          <a:ext cx="1895682" cy="888026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> restricting data to fast moving and calculating additional metric to identify run rate</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3915,22 +5001,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AU35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS21" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z50" sqref="Z50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="47" max="47" width="4.5546875" customWidth="1"/>
+    <col min="47" max="47" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -3980,7 +5066,7 @@
       <c r="AT2" s="14"/>
       <c r="AU2" s="15"/>
     </row>
-    <row r="3" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
@@ -4030,7 +5116,7 @@
       <c r="AT3" s="17"/>
       <c r="AU3" s="18"/>
     </row>
-    <row r="4" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -4080,7 +5166,7 @@
       <c r="AT4" s="1"/>
       <c r="AU4" s="2"/>
     </row>
-    <row r="5" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4128,7 +5214,7 @@
       <c r="AT5" s="1"/>
       <c r="AU5" s="2"/>
     </row>
-    <row r="6" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4176,7 +5262,7 @@
       <c r="AT6" s="1"/>
       <c r="AU6" s="2"/>
     </row>
-    <row r="7" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4224,7 +5310,7 @@
       <c r="AT7" s="1"/>
       <c r="AU7" s="2"/>
     </row>
-    <row r="8" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4272,7 +5358,7 @@
       <c r="AT8" s="1"/>
       <c r="AU8" s="2"/>
     </row>
-    <row r="9" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4320,7 +5406,7 @@
       <c r="AT9" s="1"/>
       <c r="AU9" s="2"/>
     </row>
-    <row r="10" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4368,7 +5454,7 @@
       <c r="AT10" s="5"/>
       <c r="AU10" s="6"/>
     </row>
-    <row r="11" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>2</v>
       </c>
@@ -4418,7 +5504,7 @@
       <c r="AT11" s="1"/>
       <c r="AU11" s="2"/>
     </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4466,7 +5552,7 @@
       <c r="AT12" s="1"/>
       <c r="AU12" s="2"/>
     </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4514,7 +5600,7 @@
       <c r="AT13" s="1"/>
       <c r="AU13" s="2"/>
     </row>
-    <row r="14" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4562,7 +5648,7 @@
       <c r="AT14" s="1"/>
       <c r="AU14" s="2"/>
     </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4610,13 +5696,12 @@
       <c r="AT15" s="1"/>
       <c r="AU15" s="2"/>
     </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -4658,7 +5743,7 @@
       <c r="AT16" s="1"/>
       <c r="AU16" s="2"/>
     </row>
-    <row r="17" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4706,7 +5791,7 @@
       <c r="AT17" s="1"/>
       <c r="AU17" s="2"/>
     </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4754,7 +5839,7 @@
       <c r="AT18" s="1"/>
       <c r="AU18" s="2"/>
     </row>
-    <row r="19" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4801,7 +5886,7 @@
       <c r="AT19" s="1"/>
       <c r="AU19" s="2"/>
     </row>
-    <row r="20" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4849,7 +5934,7 @@
       <c r="AT20" s="1"/>
       <c r="AU20" s="2"/>
     </row>
-    <row r="21" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4897,7 +5982,7 @@
       <c r="AT21" s="1"/>
       <c r="AU21" s="2"/>
     </row>
-    <row r="22" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -4945,7 +6030,7 @@
       <c r="AT22" s="1"/>
       <c r="AU22" s="2"/>
     </row>
-    <row r="23" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -4993,7 +6078,7 @@
       <c r="AT23" s="1"/>
       <c r="AU23" s="2"/>
     </row>
-    <row r="24" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -5041,7 +6126,7 @@
       <c r="AT24" s="1"/>
       <c r="AU24" s="2"/>
     </row>
-    <row r="25" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -5089,7 +6174,7 @@
       <c r="AT25" s="1"/>
       <c r="AU25" s="2"/>
     </row>
-    <row r="26" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -5137,7 +6222,7 @@
       <c r="AT26" s="1"/>
       <c r="AU26" s="2"/>
     </row>
-    <row r="27" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5185,7 +6270,7 @@
       <c r="AT27" s="1"/>
       <c r="AU27" s="2"/>
     </row>
-    <row r="28" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -5233,7 +6318,7 @@
       <c r="AT28" s="1"/>
       <c r="AU28" s="2"/>
     </row>
-    <row r="29" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5281,7 +6366,7 @@
       <c r="AT29" s="1"/>
       <c r="AU29" s="2"/>
     </row>
-    <row r="30" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -5329,7 +6414,7 @@
       <c r="AT30" s="1"/>
       <c r="AU30" s="2"/>
     </row>
-    <row r="31" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5377,7 +6462,7 @@
       <c r="AT31" s="1"/>
       <c r="AU31" s="2"/>
     </row>
-    <row r="32" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5425,7 +6510,7 @@
       <c r="AT32" s="1"/>
       <c r="AU32" s="2"/>
     </row>
-    <row r="33" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5473,7 +6558,7 @@
       <c r="AT33" s="1"/>
       <c r="AU33" s="2"/>
     </row>
-    <row r="34" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5521,7 +6606,7 @@
       <c r="AT34" s="1"/>
       <c r="AU34" s="2"/>
     </row>
-    <row r="35" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="12"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
